--- a/input_data/TIMETABLE_2324_Trunghoc.xlsx
+++ b/input_data/TIMETABLE_2324_Trunghoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhdh/Craft/Frappe/parent_portal/pp-frappe-da/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7412179-8C88-5543-B025-3FD31017D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599E5131-DD42-3B4D-8856-622CF7308DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="30140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input_data/TIMETABLE_2324_Trunghoc.xlsx
+++ b/input_data/TIMETABLE_2324_Trunghoc.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhdh/Craft/Frappe/parent_portal/pp-frappe-da/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599E5131-DD42-3B4D-8856-622CF7308DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53841E1E-C7E1-7F4D-89DC-080E51CE72F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="30140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -181,9 +194,6 @@
     <t>SEL</t>
   </si>
   <si>
-    <t>Mỹ Thuật</t>
-  </si>
-  <si>
     <t>Nhạc</t>
   </si>
   <si>
@@ -310,7 +320,10 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>7:45 - 7:55</t>
+    <t>07:45 - 07:55</t>
+  </si>
+  <si>
+    <t>Nghệ Thuật</t>
   </si>
 </sst>
 </file>
@@ -692,12 +705,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -828,121 +842,121 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -995,7 +1009,7 @@
         <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="R3" t="s">
         <v>47</v>
@@ -1004,37 +1018,37 @@
         <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="U3" t="s">
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
       <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>58</v>
       </c>
       <c r="AC3" t="s">
         <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE3" t="s">
         <v>48</v>
@@ -1052,19 +1066,19 @@
         <v>48</v>
       </c>
       <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>61</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -1072,22 +1086,22 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
@@ -1099,16 +1113,16 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
         <v>48</v>
@@ -1117,7 +1131,7 @@
         <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
         <v>47</v>
@@ -1126,67 +1140,67 @@
         <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
         <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" t="s">
         <v>60</v>
       </c>
-      <c r="X4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>61</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
@@ -1194,25 +1208,25 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
@@ -1221,16 +1235,16 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
         <v>48</v>
@@ -1239,25 +1253,25 @@
         <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
         <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
         <v>46</v>
@@ -1266,31 +1280,31 @@
         <v>50</v>
       </c>
       <c r="Z5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" t="s">
-        <v>56</v>
-      </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="s">
         <v>49</v>
@@ -1302,13 +1316,13 @@
         <v>49</v>
       </c>
       <c r="AL5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
@@ -1316,121 +1330,121 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -1438,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1447,22 +1461,22 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
         <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
@@ -1471,34 +1485,34 @@
         <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" t="s">
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
         <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
         <v>49</v>
@@ -1516,43 +1530,43 @@
         <v>47</v>
       </c>
       <c r="AB7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" t="s">
         <v>55</v>
       </c>
-      <c r="AC7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>56</v>
-      </c>
       <c r="AE7" t="s">
         <v>47</v>
       </c>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" t="s">
         <v>60</v>
       </c>
-      <c r="AH7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>61</v>
-      </c>
       <c r="AM7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -1560,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1569,22 +1583,22 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
@@ -1593,31 +1607,31 @@
         <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
         <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
         <v>52</v>
@@ -1638,7 +1652,7 @@
         <v>47</v>
       </c>
       <c r="AB8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC8" t="s">
         <v>48</v>
@@ -1650,25 +1664,25 @@
         <v>47</v>
       </c>
       <c r="AF8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH8" t="s">
         <v>48</v>
       </c>
       <c r="AI8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="s">
         <v>51</v>
@@ -1682,121 +1696,121 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -1804,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1813,49 +1827,49 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
         <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
         <v>43</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
         <v>51</v>
@@ -1864,22 +1878,22 @@
         <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB10" t="s">
         <v>50</v>
@@ -1888,31 +1902,31 @@
         <v>47</v>
       </c>
       <c r="AD10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF10" t="s">
         <v>48</v>
       </c>
       <c r="AG10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH10" t="s">
         <v>47</v>
       </c>
       <c r="AI10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="s">
         <v>48</v>
@@ -1926,7 +1940,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1938,46 +1952,46 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
         <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
         <v>43</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s">
         <v>48</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
         <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
         <v>51</v>
@@ -1986,19 +2000,19 @@
         <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X11" t="s">
         <v>43</v>
       </c>
       <c r="Y11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA11" t="s">
         <v>49</v>
@@ -2010,31 +2024,31 @@
         <v>47</v>
       </c>
       <c r="AD11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF11" t="s">
         <v>48</v>
       </c>
       <c r="AG11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH11" t="s">
         <v>47</v>
       </c>
       <c r="AI11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="s">
         <v>48</v>
@@ -2048,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -2081,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
         <v>43</v>
@@ -2093,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
         <v>45</v>
@@ -2102,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="U12" t="s">
         <v>52</v>
@@ -2111,16 +2125,16 @@
         <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X12" t="s">
         <v>43</v>
       </c>
       <c r="Y12" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="Z12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA12" t="s">
         <v>46</v>
@@ -2135,25 +2149,25 @@
         <v>50</v>
       </c>
       <c r="AE12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s">
         <v>78</v>
       </c>
-      <c r="AF12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>79</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL12" t="s">
         <v>48</v>
@@ -2170,121 +2184,121 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -2292,7 +2306,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -2301,7 +2315,7 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
@@ -2328,13 +2342,13 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="s">
         <v>46</v>
@@ -2352,19 +2366,19 @@
         <v>46</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="W14" t="s">
         <v>43</v>
       </c>
       <c r="X14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y14" t="s">
         <v>45</v>
       </c>
       <c r="Z14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA14" t="s">
         <v>48</v>
@@ -2379,25 +2393,25 @@
         <v>51</v>
       </c>
       <c r="AE14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF14" t="s">
         <v>52</v>
       </c>
       <c r="AG14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH14" t="s">
         <v>50</v>
       </c>
       <c r="AI14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s">
         <v>48</v>
@@ -2414,248 +2428,248 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -2670,16 +2684,16 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
@@ -2697,10 +2711,10 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q17" t="s">
         <v>43</v>
@@ -2715,13 +2729,13 @@
         <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
         <v>45</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
         <v>43</v>
@@ -2730,7 +2744,7 @@
         <v>46</v>
       </c>
       <c r="Z17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA17" t="s">
         <v>48</v>
@@ -2739,13 +2753,13 @@
         <v>47</v>
       </c>
       <c r="AC17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF17" t="s">
         <v>51</v>
@@ -2754,33 +2768,33 @@
         <v>50</v>
       </c>
       <c r="AH17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" t="s">
         <v>61</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2792,7 +2806,7 @@
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
@@ -2801,13 +2815,13 @@
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
         <v>51</v>
@@ -2819,10 +2833,10 @@
         <v>51</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
         <v>43</v>
@@ -2831,7 +2845,7 @@
         <v>48</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
         <v>51</v>
@@ -2843,31 +2857,31 @@
         <v>45</v>
       </c>
       <c r="W18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y18" t="s">
         <v>48</v>
       </c>
       <c r="Z18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB18" t="s">
         <v>47</v>
       </c>
       <c r="AC18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD18" t="s">
         <v>51</v>
       </c>
       <c r="AE18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF18" t="s">
         <v>51</v>
@@ -2876,45 +2890,45 @@
         <v>47</v>
       </c>
       <c r="AH18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI18" t="s">
         <v>47</v>
       </c>
       <c r="AJ18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s">
         <v>48</v>
       </c>
       <c r="AL18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2923,13 +2937,13 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
@@ -2938,7 +2952,7 @@
         <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
@@ -2947,13 +2961,13 @@
         <v>52</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
         <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
         <v>43</v>
@@ -2968,22 +2982,22 @@
         <v>46</v>
       </c>
       <c r="X19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y19" t="s">
         <v>48</v>
       </c>
       <c r="Z19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
       </c>
       <c r="AC19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD19" t="s">
         <v>51</v>
@@ -2992,167 +3006,167 @@
         <v>50</v>
       </c>
       <c r="AF19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG19" t="s">
         <v>47</v>
       </c>
       <c r="AH19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI19" t="s">
         <v>47</v>
       </c>
       <c r="AJ19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM19" t="s">
         <v>60</v>
       </c>
-      <c r="AK19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>61</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -3161,120 +3175,120 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>60</v>
-      </c>
-      <c r="R21" t="s">
-        <v>55</v>
-      </c>
-      <c r="S21" t="s">
-        <v>48</v>
-      </c>
-      <c r="T21" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" t="s">
-        <v>60</v>
-      </c>
-      <c r="V21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>61</v>
-      </c>
       <c r="AN21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
@@ -3283,40 +3297,40 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
         <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s">
         <v>48</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O22" t="s">
         <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S22" t="s">
         <v>48</v>
@@ -3325,10 +3339,10 @@
         <v>47</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W22" t="s">
         <v>51</v>
@@ -3346,7 +3360,7 @@
         <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC22" t="s">
         <v>51</v>
@@ -3358,161 +3372,161 @@
         <v>52</v>
       </c>
       <c r="AF22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG22" t="s">
         <v>48</v>
       </c>
       <c r="AH22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL22" t="s">
         <v>51</v>
       </c>
       <c r="AM22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -3527,10 +3541,10 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
         <v>50</v>
@@ -3542,13 +3556,13 @@
         <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O24" t="s">
         <v>51</v>
@@ -3557,7 +3571,7 @@
         <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
         <v>43</v>
@@ -3566,16 +3580,16 @@
         <v>42</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="X24" t="s">
         <v>45</v>
@@ -3587,34 +3601,34 @@
         <v>50</v>
       </c>
       <c r="AA24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD24" t="s">
         <v>52</v>
       </c>
       <c r="AE24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s">
         <v>48</v>
       </c>
       <c r="AJ24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s">
         <v>47</v>
@@ -3623,18 +3637,18 @@
         <v>51</v>
       </c>
       <c r="AM24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -3643,7 +3657,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -3652,7 +3666,7 @@
         <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
         <v>43</v>
@@ -3664,13 +3678,13 @@
         <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M25" t="s">
         <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O25" t="s">
         <v>51</v>
@@ -3679,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
         <v>50</v>
@@ -3688,75 +3702,75 @@
         <v>47</v>
       </c>
       <c r="T25" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" t="s">
+        <v>54</v>
+      </c>
+      <c r="V25" t="s">
+        <v>59</v>
+      </c>
+      <c r="W25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN25" t="s">
         <v>55</v>
-      </c>
-      <c r="U25" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" t="s">
-        <v>60</v>
-      </c>
-      <c r="W25" t="s">
-        <v>48</v>
-      </c>
-      <c r="X25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -3765,7 +3779,7 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
         <v>48</v>
@@ -3792,7 +3806,7 @@
         <v>43</v>
       </c>
       <c r="N26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O26" t="s">
         <v>50</v>
@@ -3810,180 +3824,180 @@
         <v>47</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="V26" t="s">
+        <v>59</v>
+      </c>
+      <c r="W26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB26" t="s">
         <v>60</v>
       </c>
-      <c r="W26" t="s">
-        <v>48</v>
-      </c>
-      <c r="X26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>61</v>
-      </c>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD26" t="s">
         <v>47</v>
       </c>
       <c r="AE26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ26" t="s">
         <v>51</v>
       </c>
       <c r="AK26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z27" t="s">
         <v>48</v>
       </c>
       <c r="AA27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC27" t="s">
         <v>50</v>
       </c>
       <c r="AD27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL27" t="s">
         <v>48</v>
@@ -3997,79 +4011,79 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z28" t="s">
         <v>48</v>
@@ -4081,31 +4095,31 @@
         <v>49</v>
       </c>
       <c r="AC28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL28" t="s">
         <v>48</v>
@@ -4119,129 +4133,129 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -4256,7 +4270,7 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
         <v>48</v>
@@ -4271,13 +4285,13 @@
         <v>43</v>
       </c>
       <c r="K30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" t="s">
         <v>57</v>
       </c>
-      <c r="L30" t="s">
-        <v>58</v>
-      </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
         <v>49</v>
@@ -4292,13 +4306,13 @@
         <v>50</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S30" t="s">
         <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
         <v>42</v>
@@ -4316,40 +4330,40 @@
         <v>52</v>
       </c>
       <c r="Z30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA30" t="s">
         <v>48</v>
       </c>
       <c r="AB30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC30" t="s">
         <v>51</v>
       </c>
       <c r="AD30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL30" t="s">
         <v>48</v>
@@ -4363,10 +4377,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4378,13 +4392,13 @@
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
         <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
         <v>51</v>
@@ -4399,7 +4413,7 @@
         <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
         <v>48</v>
@@ -4411,19 +4425,19 @@
         <v>51</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S31" t="s">
         <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
         <v>51</v>
@@ -4435,46 +4449,46 @@
         <v>48</v>
       </c>
       <c r="Y31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z31" t="s">
         <v>48</v>
       </c>
       <c r="AA31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC31" t="s">
         <v>51</v>
       </c>
       <c r="AD31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG31" t="s">
         <v>47</v>
       </c>
       <c r="AH31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM31" t="s">
         <v>48</v>
@@ -4485,10 +4499,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4506,7 +4520,7 @@
         <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" t="s">
         <v>43</v>
@@ -4515,28 +4529,28 @@
         <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s">
         <v>47</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="N32" t="s">
         <v>48</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s">
         <v>50</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
         <v>43</v>
@@ -4545,7 +4559,7 @@
         <v>49</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
         <v>48</v>
@@ -4557,182 +4571,182 @@
         <v>42</v>
       </c>
       <c r="Y32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z32" t="s">
         <v>48</v>
       </c>
       <c r="AA32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD32" t="s">
         <v>50</v>
       </c>
       <c r="AE32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN32" t="s">
         <v>55</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4744,7 +4758,7 @@
         <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -4753,28 +4767,28 @@
         <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L34" t="s">
         <v>48</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O34" t="s">
         <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q34" t="s">
         <v>52</v>
@@ -4783,13 +4797,13 @@
         <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
         <v>43</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
         <v>47</v>
@@ -4804,57 +4818,57 @@
         <v>45</v>
       </c>
       <c r="Z34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA34" t="s">
         <v>51</v>
       </c>
       <c r="AB34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN34" t="s">
         <v>55</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -4866,7 +4880,7 @@
         <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
@@ -4875,13 +4889,13 @@
         <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L35" t="s">
         <v>48</v>
@@ -4890,28 +4904,28 @@
         <v>52</v>
       </c>
       <c r="N35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q35" t="s">
         <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
         <v>43</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
         <v>47</v>
@@ -4926,179 +4940,179 @@
         <v>45</v>
       </c>
       <c r="Z35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA35" t="s">
         <v>51</v>
       </c>
       <c r="AB35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC35" t="s">
         <v>47</v>
       </c>
       <c r="AD35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL35" t="s">
         <v>60</v>
       </c>
-      <c r="AE35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN35" t="s">
         <v>61</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5113,13 +5127,13 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
         <v>50</v>
@@ -5128,7 +5142,7 @@
         <v>42</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M37" t="s">
         <v>49</v>
@@ -5137,7 +5151,7 @@
         <v>45</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P37" t="s">
         <v>49</v>
@@ -5149,7 +5163,7 @@
         <v>48</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T37" t="s">
         <v>47</v>
@@ -5158,75 +5172,75 @@
         <v>51</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W37" t="s">
         <v>45</v>
       </c>
       <c r="X37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y37" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="Z37" t="s">
         <v>47</v>
       </c>
       <c r="AA37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB37" t="s">
         <v>52</v>
       </c>
       <c r="AC37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM37" t="s">
         <v>56</v>
       </c>
-      <c r="AD37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL37" t="s">
+      <c r="AN37" t="s">
         <v>61</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -5235,13 +5249,13 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" t="s">
         <v>51</v>
@@ -5250,16 +5264,16 @@
         <v>48</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P38" t="s">
         <v>47</v>
@@ -5271,7 +5285,7 @@
         <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T38" t="s">
         <v>47</v>
@@ -5280,78 +5294,78 @@
         <v>51</v>
       </c>
       <c r="V38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W38" t="s">
         <v>45</v>
       </c>
       <c r="X38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z38" t="s">
         <v>47</v>
       </c>
       <c r="AA38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB38" t="s">
         <v>51</v>
       </c>
       <c r="AC38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE38" t="s">
         <v>50</v>
       </c>
       <c r="AF38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI38" t="s">
         <v>52</v>
       </c>
       <c r="AJ38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK38" t="s">
         <v>47</v>
       </c>
       <c r="AL38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -5363,7 +5377,7 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
         <v>51</v>
@@ -5375,13 +5389,13 @@
         <v>42</v>
       </c>
       <c r="M39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
         <v>43</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s">
         <v>47</v>
@@ -5393,7 +5407,7 @@
         <v>52</v>
       </c>
       <c r="S39" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="T39" t="s">
         <v>50</v>
@@ -5405,25 +5419,25 @@
         <v>45</v>
       </c>
       <c r="W39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X39" t="s">
         <v>43</v>
       </c>
       <c r="Y39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB39" t="s">
         <v>51</v>
       </c>
       <c r="AC39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD39" t="s">
         <v>46</v>
@@ -5432,13 +5446,13 @@
         <v>51</v>
       </c>
       <c r="AF39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI39" t="s">
         <v>49</v>
@@ -5450,21 +5464,21 @@
         <v>49</v>
       </c>
       <c r="AL39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -5473,7 +5487,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
@@ -5482,13 +5496,13 @@
         <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s">
         <v>47</v>
@@ -5503,7 +5517,7 @@
         <v>47</v>
       </c>
       <c r="O40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
@@ -5527,7 +5541,7 @@
         <v>50</v>
       </c>
       <c r="W40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X40" t="s">
         <v>47</v>
@@ -5536,31 +5550,31 @@
         <v>43</v>
       </c>
       <c r="Z40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA40" t="s">
         <v>50</v>
       </c>
       <c r="AB40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC40" t="s">
         <v>48</v>
       </c>
       <c r="AD40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE40" t="s">
         <v>51</v>
       </c>
       <c r="AF40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG40" t="s">
         <v>48</v>
       </c>
       <c r="AH40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI40" t="s">
         <v>51</v>
@@ -5569,24 +5583,24 @@
         <v>51</v>
       </c>
       <c r="AK40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -5595,7 +5609,7 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
@@ -5604,13 +5618,13 @@
         <v>43</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s">
         <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s">
         <v>47</v>
@@ -5619,16 +5633,16 @@
         <v>51</v>
       </c>
       <c r="M41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N41" t="s">
         <v>47</v>
       </c>
       <c r="O41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="Q41" t="s">
         <v>48</v>
@@ -5649,7 +5663,7 @@
         <v>49</v>
       </c>
       <c r="W41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X41" t="s">
         <v>47</v>
@@ -5658,10 +5672,10 @@
         <v>43</v>
       </c>
       <c r="Z41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA41" t="s">
         <v>55</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>56</v>
       </c>
       <c r="AB41" t="s">
         <v>46</v>
@@ -5670,7 +5684,7 @@
         <v>48</v>
       </c>
       <c r="AD41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE41" t="s">
         <v>51</v>
@@ -5679,10 +5693,10 @@
         <v>50</v>
       </c>
       <c r="AG41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI41" t="s">
         <v>51</v>
@@ -5691,143 +5705,143 @@
         <v>51</v>
       </c>
       <c r="AK41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -5854,13 +5868,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
         <v>50</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M43" t="s">
         <v>46</v>
@@ -5869,7 +5883,7 @@
         <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s">
         <v>48</v>
@@ -5878,7 +5892,7 @@
         <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="S43" t="s">
         <v>45</v>
@@ -5893,34 +5907,34 @@
         <v>50</v>
       </c>
       <c r="W43" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="X43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y43" t="s">
         <v>43</v>
       </c>
       <c r="Z43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA43" t="s">
         <v>48</v>
       </c>
       <c r="AB43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE43" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" t="s">
-        <v>59</v>
-      </c>
       <c r="AF43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG43" t="s">
         <v>51</v>
@@ -5929,16 +5943,16 @@
         <v>52</v>
       </c>
       <c r="AI43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK43" t="s">
         <v>60</v>
       </c>
-      <c r="AJ43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>61</v>
-      </c>
       <c r="AL43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM43" t="s">
         <v>48</v>
@@ -5949,10 +5963,10 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -5961,7 +5975,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
@@ -5979,10 +5993,10 @@
         <v>51</v>
       </c>
       <c r="K44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M44" t="s">
         <v>48</v>
@@ -5991,7 +6005,7 @@
         <v>45</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s">
         <v>48</v>
@@ -6000,13 +6014,13 @@
         <v>47</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S44" t="s">
         <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U44" t="s">
         <v>47</v>
@@ -6018,63 +6032,63 @@
         <v>51</v>
       </c>
       <c r="X44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN44" t="s">
         <v>55</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -6083,7 +6097,7 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -6095,13 +6109,13 @@
         <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="J45" t="s">
         <v>51</v>
       </c>
       <c r="K45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" t="s">
         <v>50</v>
@@ -6116,22 +6130,22 @@
         <v>46</v>
       </c>
       <c r="P45" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="Q45" t="s">
         <v>47</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S45" t="s">
         <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V45" t="s">
         <v>48</v>
@@ -6143,16 +6157,16 @@
         <v>52</v>
       </c>
       <c r="Y45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC45" t="s">
         <v>42</v>
@@ -6173,161 +6187,161 @@
         <v>51</v>
       </c>
       <c r="AI45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL45" t="s">
         <v>56</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AM45" t="s">
         <v>60</v>
       </c>
-      <c r="AL45" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>61</v>
-      </c>
       <c r="AN45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -6339,37 +6353,37 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O47" t="s">
         <v>51</v>
       </c>
       <c r="P47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q47" t="s">
         <v>48</v>
       </c>
       <c r="R47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T47" t="s">
         <v>45</v>
@@ -6381,16 +6395,16 @@
         <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X47" t="s">
         <v>47</v>
       </c>
       <c r="Y47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA47" t="s">
         <v>47</v>
@@ -6399,7 +6413,7 @@
         <v>51</v>
       </c>
       <c r="AC47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD47" t="s">
         <v>51</v>
@@ -6408,7 +6422,7 @@
         <v>47</v>
       </c>
       <c r="AF47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG47" t="s">
         <v>52</v>
@@ -6417,39 +6431,39 @@
         <v>48</v>
       </c>
       <c r="AI47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN47" t="s">
         <v>61</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
@@ -6461,37 +6475,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L48" t="s">
         <v>49</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O48" t="s">
         <v>51</v>
       </c>
       <c r="P48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q48" t="s">
         <v>48</v>
       </c>
       <c r="R48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T48" t="s">
         <v>45</v>
@@ -6503,7 +6517,7 @@
         <v>43</v>
       </c>
       <c r="W48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X48" t="s">
         <v>47</v>
@@ -6521,200 +6535,200 @@
         <v>51</v>
       </c>
       <c r="AC48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL48" t="s">
         <v>60</v>
       </c>
-      <c r="AD48" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL48" t="s">
+      <c r="AM48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN48" t="s">
         <v>61</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
         <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
       </c>
       <c r="L50" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M50" t="s">
         <v>47</v>
@@ -6738,13 +6752,13 @@
         <v>47</v>
       </c>
       <c r="T50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
         <v>44</v>
       </c>
       <c r="V50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W50" t="s">
         <v>52</v>
@@ -6753,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="Y50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z50" t="s">
         <v>49</v>
@@ -6762,28 +6776,28 @@
         <v>50</v>
       </c>
       <c r="AB50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s">
         <v>47</v>
@@ -6795,18 +6809,18 @@
         <v>51</v>
       </c>
       <c r="AM50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -6815,22 +6829,22 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
         <v>45</v>
@@ -6845,13 +6859,13 @@
         <v>47</v>
       </c>
       <c r="O51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s">
         <v>51</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R51" t="s">
         <v>43</v>
@@ -6860,13 +6874,13 @@
         <v>47</v>
       </c>
       <c r="T51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="V51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W51" t="s">
         <v>45</v>
@@ -6875,34 +6889,34 @@
         <v>48</v>
       </c>
       <c r="Y51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z51" t="s">
         <v>42</v>
       </c>
       <c r="AA51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI51" t="s">
         <v>50</v>
@@ -6917,18 +6931,18 @@
         <v>51</v>
       </c>
       <c r="AM51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -6943,16 +6957,16 @@
         <v>52</v>
       </c>
       <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" t="s">
         <v>57</v>
       </c>
-      <c r="H52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I52" t="s">
-        <v>58</v>
-      </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s">
         <v>43</v>
@@ -6967,19 +6981,19 @@
         <v>50</v>
       </c>
       <c r="O52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s">
         <v>51</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R52" t="s">
         <v>46</v>
       </c>
       <c r="S52" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="T52" t="s">
         <v>42</v>
@@ -7000,34 +7014,34 @@
         <v>44</v>
       </c>
       <c r="Z52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s">
         <v>50</v>
@@ -7039,24 +7053,24 @@
         <v>48</v>
       </c>
       <c r="AM52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
@@ -7065,7 +7079,7 @@
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -7089,7 +7103,7 @@
         <v>48</v>
       </c>
       <c r="O53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P53" t="s">
         <v>50</v>
@@ -7107,7 +7121,7 @@
         <v>46</v>
       </c>
       <c r="U53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V53" t="s">
         <v>51</v>
@@ -7119,43 +7133,43 @@
         <v>45</v>
       </c>
       <c r="Y53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL53" t="s">
         <v>48</v>
@@ -7169,25 +7183,25 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
@@ -7229,7 +7243,7 @@
         <v>44</v>
       </c>
       <c r="U54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V54" t="s">
         <v>51</v>
@@ -7244,40 +7258,40 @@
         <v>49</v>
       </c>
       <c r="Z54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL54" t="s">
         <v>51</v>
@@ -7291,129 +7305,129 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -7422,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
         <v>50</v>
@@ -7434,16 +7448,16 @@
         <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
         <v>43</v>
       </c>
       <c r="K56" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s">
         <v>45</v>
@@ -7458,16 +7472,16 @@
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q56" t="s">
         <v>51</v>
       </c>
       <c r="R56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
         <v>52</v>
@@ -7482,46 +7496,46 @@
         <v>43</v>
       </c>
       <c r="X56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y56" t="s">
         <v>48</v>
       </c>
       <c r="Z56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD56" t="s">
         <v>55</v>
       </c>
-      <c r="AA56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>56</v>
-      </c>
       <c r="AE56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF56" t="s">
         <v>48</v>
       </c>
       <c r="AG56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK56" t="s">
         <v>60</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>61</v>
       </c>
       <c r="AL56" t="s">
         <v>51</v>
@@ -7535,19 +7549,19 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
         <v>51</v>
@@ -7559,13 +7573,13 @@
         <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L57" t="s">
         <v>52</v>
@@ -7580,7 +7594,7 @@
         <v>48</v>
       </c>
       <c r="P57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q57" t="s">
         <v>51</v>
@@ -7589,13 +7603,13 @@
         <v>51</v>
       </c>
       <c r="S57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V57" t="s">
         <v>48</v>
@@ -7604,25 +7618,25 @@
         <v>43</v>
       </c>
       <c r="X57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y57" t="s">
         <v>48</v>
       </c>
       <c r="Z57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
       </c>
       <c r="AC57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE57" t="s">
         <v>51</v>
@@ -7631,7 +7645,7 @@
         <v>48</v>
       </c>
       <c r="AG57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH57" t="s">
         <v>47</v>
@@ -7643,7 +7657,7 @@
         <v>47</v>
       </c>
       <c r="AK57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL57" t="s">
         <v>51</v>
@@ -7657,22 +7671,22 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
         <v>42</v>
@@ -7684,10 +7698,10 @@
         <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L58" t="s">
         <v>46</v>
@@ -7717,7 +7731,7 @@
         <v>43</v>
       </c>
       <c r="U58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V58" t="s">
         <v>48</v>
@@ -7726,7 +7740,7 @@
         <v>44</v>
       </c>
       <c r="X58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y58" t="s">
         <v>50</v>
@@ -7735,28 +7749,28 @@
         <v>46</v>
       </c>
       <c r="AA58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
       </c>
       <c r="AC58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s">
         <v>51</v>
@@ -7765,176 +7779,176 @@
         <v>52</v>
       </c>
       <c r="AK58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL58" t="s">
         <v>60</v>
       </c>
-      <c r="AL58" t="s">
-        <v>61</v>
-      </c>
       <c r="AM58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M60" t="s">
         <v>48</v>
@@ -7943,19 +7957,19 @@
         <v>43</v>
       </c>
       <c r="O60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T60" t="s">
         <v>48</v>
@@ -7967,16 +7981,16 @@
         <v>47</v>
       </c>
       <c r="W60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y60" t="s">
         <v>47</v>
       </c>
       <c r="Z60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA60" t="s">
         <v>51</v>
@@ -7991,7 +8005,7 @@
         <v>47</v>
       </c>
       <c r="AE60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF60" t="s">
         <v>51</v>
@@ -8000,33 +8014,33 @@
         <v>50</v>
       </c>
       <c r="AH60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -8038,25 +8052,25 @@
         <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s">
         <v>50</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s">
         <v>48</v>
       </c>
       <c r="J61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s">
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M61" t="s">
         <v>48</v>
@@ -8065,19 +8079,19 @@
         <v>46</v>
       </c>
       <c r="O61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T61" t="s">
         <v>48</v>
@@ -8089,203 +8103,203 @@
         <v>47</v>
       </c>
       <c r="W61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y61" t="s">
         <v>47</v>
       </c>
       <c r="Z61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB61" t="s">
         <v>47</v>
       </c>
       <c r="AC61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD61" t="s">
         <v>47</v>
       </c>
       <c r="AE61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF61" t="s">
         <v>51</v>
       </c>
       <c r="AG61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
@@ -8294,19 +8308,19 @@
         <v>46</v>
       </c>
       <c r="J63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K63" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O63" t="s">
         <v>47</v>
@@ -8318,34 +8332,34 @@
         <v>47</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S63" t="s">
         <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U63" t="s">
         <v>45</v>
       </c>
       <c r="V63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X63" t="s">
         <v>49</v>
       </c>
       <c r="Y63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z63" t="s">
         <v>52</v>
       </c>
       <c r="AA63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB63" t="s">
         <v>42</v>
@@ -8354,19 +8368,19 @@
         <v>50</v>
       </c>
       <c r="AD63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s">
         <v>47</v>
@@ -8375,7 +8389,7 @@
         <v>50</v>
       </c>
       <c r="AK63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL63" t="s">
         <v>48</v>
@@ -8389,25 +8403,25 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
@@ -8416,19 +8430,19 @@
         <v>49</v>
       </c>
       <c r="J64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K64" t="s">
         <v>43</v>
       </c>
       <c r="L64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O64" t="s">
         <v>47</v>
@@ -8440,52 +8454,52 @@
         <v>47</v>
       </c>
       <c r="R64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S64" t="s">
         <v>43</v>
       </c>
       <c r="T64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U64" t="s">
         <v>45</v>
       </c>
       <c r="V64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X64" t="s">
         <v>50</v>
       </c>
       <c r="Y64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD64" t="s">
         <v>48</v>
       </c>
       <c r="AE64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF64" t="s">
         <v>47</v>
       </c>
       <c r="AG64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH64" t="s">
         <v>50</v>
@@ -8494,10 +8508,10 @@
         <v>47</v>
       </c>
       <c r="AJ64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL64" t="s">
         <v>48</v>
@@ -8511,79 +8525,79 @@
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z65" t="s">
         <v>51</v>
@@ -8592,31 +8606,31 @@
         <v>52</v>
       </c>
       <c r="AB65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD65" t="s">
         <v>48</v>
       </c>
       <c r="AE65" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ65" t="s">
         <v>60</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>61</v>
       </c>
       <c r="AK65" t="s">
         <v>50</v>
@@ -8633,112 +8647,112 @@
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z66" t="s">
         <v>48</v>
       </c>
       <c r="AA66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB66" t="s">
         <v>50</v>
       </c>
       <c r="AC66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD66" t="s">
         <v>49</v>
       </c>
       <c r="AE66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI66" t="s">
         <v>50</v>
       </c>
       <c r="AJ66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s">
         <v>52</v>
@@ -8755,124 +8769,124 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
